--- a/1. Importacion_Equipos_GUIA.xlsx
+++ b/1. Importacion_Equipos_GUIA.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Equipos" sheetId="1" r:id="rId1"/>
+    <sheet name="Importacion_Equipos_GUIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Equipos!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Importacion_Equipos_GUIA!$A$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>SERIAL</t>
   </si>
@@ -77,9 +77,6 @@
     <t>En uso</t>
   </si>
   <si>
-    <t>UDLP</t>
-  </si>
-  <si>
     <t>DC-1</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Comunicacion</t>
   </si>
   <si>
-    <t>Karla Mieres</t>
-  </si>
-  <si>
     <t>No. BIEN</t>
   </si>
   <si>
@@ -134,18 +128,6 @@
     <t>Electronicos</t>
   </si>
   <si>
-    <t>NP3020M3</t>
-  </si>
-  <si>
-    <t>NP3020M4</t>
-  </si>
-  <si>
-    <t>NP3020M5</t>
-  </si>
-  <si>
-    <t>NP3020M6</t>
-  </si>
-  <si>
     <t>Mobiliario</t>
   </si>
   <si>
@@ -153,6 +135,27 @@
   </si>
   <si>
     <t>chequeado</t>
+  </si>
+  <si>
+    <t>Gustavo Guedez</t>
+  </si>
+  <si>
+    <t>DIIE</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000005</t>
   </si>
 </sst>
 </file>
@@ -274,47 +277,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,29 +291,50 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -668,407 +656,417 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="16" style="13"/>
+    <col min="1" max="1" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="16" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="16">
         <v>214185856</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="19">
+        <v>14062579</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="11">
-        <v>18344910</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
         <v>1</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="5">
         <v>1</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="6">
         <v>44599</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="6">
         <v>44599</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>21</v>
+      <c r="T2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16">
+        <v>214185857</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="19">
+        <v>14062579</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="5">
+        <v>20</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>44599</v>
+      </c>
+      <c r="S3" s="6">
+        <v>44599</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1">
-        <v>214185857</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="11">
-        <v>18344911</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="19">
-        <v>20</v>
-      </c>
-      <c r="P3" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>1</v>
-      </c>
-      <c r="R3" s="23">
-        <v>44599</v>
-      </c>
-      <c r="S3" s="23">
-        <v>44599</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>39</v>
+      <c r="U3" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16">
+        <v>214185858</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1">
-        <v>214185858</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="19">
+        <v>14062579</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="11">
-        <v>18344912</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
         <v>1</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="6">
         <v>44599</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="6">
         <v>44599</v>
       </c>
-      <c r="T4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>40</v>
+      <c r="T4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16">
+        <v>214185859</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1">
-        <v>214185859</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="19">
+        <v>14062579</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="11">
-        <v>18344913</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="O5" s="5">
         <v>20</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="5">
         <v>1</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="6">
         <v>44599</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="6">
         <v>44599</v>
       </c>
-      <c r="T5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>34</v>
+      <c r="T5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16">
         <v>214185860</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="19">
+        <v>14062579</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="11">
-        <v>18344914</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>44599</v>
+      </c>
+      <c r="S6" s="6">
+        <v>44599</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>1</v>
-      </c>
-      <c r="R6" s="23">
-        <v>44599</v>
-      </c>
-      <c r="S6" s="23">
-        <v>44599</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
